--- a/public/testFiles/test1920ver2InOut.xlsx
+++ b/public/testFiles/test1920ver2InOut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trand\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trand\code\year2025\mar\dvc-vite-prototype\public\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD4418-1EEA-4E1F-8BE3-1E31A117D7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEEA103-9485-4055-8493-26848B29EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39915" yWindow="4560" windowWidth="25380" windowHeight="19815" xr2:uid="{A0A205B2-68C8-40DD-B4F8-6AD597539707}"/>
+    <workbookView xWindow="13155" yWindow="1290" windowWidth="34155" windowHeight="19815" xr2:uid="{A0A205B2-68C8-40DD-B4F8-6AD597539707}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="150">
   <si>
     <t>Longlist of impacts</t>
   </si>
@@ -521,6 +521,9 @@
   <si>
     <t>Impact Score</t>
   </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
 </sst>
 </file>
 
@@ -918,18 +921,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29B021A-3EF3-48EC-AEA7-2FA73312363E}">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -967,7 +971,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1046,8 +1050,11 @@
       <c r="Z2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1074,7 +1081,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1134,18 +1141,22 @@
       <c r="W4" s="1"/>
       <c r="X4">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y4">
         <f ca="1">MAX(0, MIN(10, ROUND(NORMINV(RAND(), X4, 1.2), 0)))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z4">
         <f ca="1">MAX(0, MIN(10, ROUND(NORMINV(RAND(), X4, 1.2), 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,4), "Investor", "Customer", "Employee", "Regulator")</f>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1179,18 +1190,22 @@
       <c r="W5" s="1"/>
       <c r="X5">
         <f t="shared" ref="X5:X68" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <f t="shared" ref="Y5:Y68" ca="1" si="1">MAX(0, MIN(10, ROUND(NORMINV(RAND(), X5, 1.2), 0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <f t="shared" ref="Z5:Z68" ca="1" si="2">MAX(0, MIN(10, ROUND(NORMINV(RAND(), X5, 1.2), 0)))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA5" t="str">
+        <f t="shared" ref="AA5:AA68" ca="1" si="3">CHOOSE(RANDBETWEEN(1,4), "Investor", "Customer", "Employee", "Regulator")</f>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1228,14 +1243,18 @@
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1273,14 +1292,18 @@
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1318,14 +1341,18 @@
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1359,18 +1386,22 @@
       <c r="W9" s="1"/>
       <c r="X9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1404,18 +1435,22 @@
       <c r="W10" s="1"/>
       <c r="X10">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1449,18 +1484,22 @@
       <c r="W11" s="1"/>
       <c r="X11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1494,18 +1533,22 @@
       <c r="W12" s="1"/>
       <c r="X12">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1539,18 +1582,22 @@
       <c r="W13" s="1"/>
       <c r="X13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1586,18 +1633,22 @@
       <c r="W14" s="1"/>
       <c r="X14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y14">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1633,18 +1684,22 @@
       <c r="W15" s="1"/>
       <c r="X15">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z15">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1684,14 +1739,18 @@
       </c>
       <c r="Y16">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z16">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1727,18 +1786,22 @@
       <c r="W17" s="1"/>
       <c r="X17">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y17">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z17">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1774,18 +1837,22 @@
       <c r="W18" s="1"/>
       <c r="X18">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z18">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1821,18 +1888,22 @@
       <c r="W19" s="1"/>
       <c r="X19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y19">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z19">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1868,18 +1939,22 @@
       <c r="W20" s="1"/>
       <c r="X20">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y20">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z20">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1915,18 +1990,22 @@
       <c r="W21" s="1"/>
       <c r="X21">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z21">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1962,18 +2041,22 @@
       <c r="W22" s="1"/>
       <c r="X22">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z22">
         <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA22" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2009,18 +2092,22 @@
       <c r="W23" s="1"/>
       <c r="X23">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y23">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z23">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -2056,7 +2143,7 @@
       <c r="W24" s="1"/>
       <c r="X24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="1"/>
@@ -2064,10 +2151,14 @@
       </c>
       <c r="Z24">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -2101,18 +2192,22 @@
       <c r="W25" s="1"/>
       <c r="X25">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y25">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z25">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -2146,18 +2241,22 @@
       <c r="W26" s="1"/>
       <c r="X26">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2191,18 +2290,22 @@
       <c r="W27" s="1"/>
       <c r="X27">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -2236,18 +2339,22 @@
       <c r="W28" s="1"/>
       <c r="X28">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2281,18 +2388,22 @@
       <c r="W29" s="1"/>
       <c r="X29">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y29">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z29">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -2326,18 +2437,22 @@
       <c r="W30" s="1"/>
       <c r="X30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Y30">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z30">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -2367,18 +2482,22 @@
       <c r="W31" s="1"/>
       <c r="X31">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -2418,14 +2537,18 @@
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -2461,18 +2584,22 @@
       <c r="W33" s="1"/>
       <c r="X33">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -2508,18 +2635,22 @@
       <c r="W34" s="1"/>
       <c r="X34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y34">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2555,18 +2686,22 @@
       <c r="W35" s="1"/>
       <c r="X35">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y35">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -2602,18 +2737,22 @@
       <c r="W36" s="1"/>
       <c r="X36">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -2649,18 +2788,22 @@
       <c r="W37" s="1"/>
       <c r="X37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2696,18 +2839,22 @@
       <c r="W38" s="1"/>
       <c r="X38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2743,18 +2890,22 @@
       <c r="W39" s="1"/>
       <c r="X39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -2790,7 +2941,7 @@
       <c r="W40" s="1"/>
       <c r="X40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="1"/>
@@ -2798,10 +2949,14 @@
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -2837,18 +2992,22 @@
       <c r="W41" s="1"/>
       <c r="X41">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -2884,18 +3043,22 @@
       <c r="W42" s="1"/>
       <c r="X42">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y42">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -2931,18 +3094,22 @@
       <c r="W43" s="1"/>
       <c r="X43">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -2978,7 +3145,7 @@
       <c r="W44" s="1"/>
       <c r="X44">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y44">
         <f t="shared" ca="1" si="1"/>
@@ -2986,10 +3153,14 @@
       </c>
       <c r="Z44">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
@@ -3025,18 +3196,22 @@
       <c r="W45" s="1"/>
       <c r="X45">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z45">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
@@ -3072,18 +3247,22 @@
       <c r="W46" s="1"/>
       <c r="X46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -3119,18 +3298,22 @@
       <c r="W47" s="1"/>
       <c r="X47">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
@@ -3166,18 +3349,22 @@
       <c r="W48" s="1"/>
       <c r="X48">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -3217,14 +3404,18 @@
       </c>
       <c r="Y49">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z49">
         <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA49" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -3260,18 +3451,22 @@
       <c r="W50" s="1"/>
       <c r="X50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z50">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -3315,10 +3510,14 @@
       </c>
       <c r="Z51">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="AA51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
@@ -3354,18 +3553,22 @@
       <c r="W52" s="1"/>
       <c r="X52">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y52">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z52">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
@@ -3401,18 +3604,22 @@
       <c r="W53" s="1"/>
       <c r="X53">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y53">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z53">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
@@ -3448,7 +3655,7 @@
       <c r="W54" s="1"/>
       <c r="X54">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y54">
         <f t="shared" ca="1" si="1"/>
@@ -3456,10 +3663,14 @@
       </c>
       <c r="Z54">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AA54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -3495,18 +3706,22 @@
       <c r="W55" s="1"/>
       <c r="X55">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z55">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -3542,18 +3757,22 @@
       <c r="W56" s="1"/>
       <c r="X56">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y56">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z56">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AA56" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
@@ -3589,18 +3808,22 @@
       <c r="W57" s="1"/>
       <c r="X57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y57">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z57">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AA57" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -3636,18 +3859,22 @@
       <c r="W58" s="1"/>
       <c r="X58">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y58">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z58">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="AA58" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
@@ -3683,18 +3910,22 @@
       <c r="W59" s="1"/>
       <c r="X59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y59">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z59">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AA59" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>98</v>
       </c>
@@ -3730,18 +3961,22 @@
       <c r="W60" s="1"/>
       <c r="X60">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y60">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z60">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AA60" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>98</v>
       </c>
@@ -3783,14 +4018,18 @@
       </c>
       <c r="Y61">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z61">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AA61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -3826,18 +4065,22 @@
       <c r="W62" s="1"/>
       <c r="X62">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y62">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z62">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AA62" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>98</v>
       </c>
@@ -3873,18 +4116,22 @@
       <c r="W63" s="1"/>
       <c r="X63">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y63">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z63">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="AA63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>98</v>
       </c>
@@ -3920,18 +4167,22 @@
       <c r="W64" s="1"/>
       <c r="X64">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y64">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z64">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="AA64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>98</v>
       </c>
@@ -3967,18 +4218,22 @@
       <c r="W65" s="1"/>
       <c r="X65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y65">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z65">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AA65" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>98</v>
       </c>
@@ -4014,18 +4269,22 @@
       <c r="W66" s="1"/>
       <c r="X66">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y66">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z66">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AA66" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>107</v>
       </c>
@@ -4061,18 +4320,22 @@
       <c r="W67" s="1"/>
       <c r="X67">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y67">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z67">
         <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA67" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
@@ -4108,18 +4371,22 @@
       <c r="W68" s="1"/>
       <c r="X68">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y68">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>107</v>
       </c>
@@ -4154,19 +4421,23 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69">
-        <f t="shared" ref="X69:X98" ca="1" si="3">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+        <f t="shared" ref="X69:X98" ca="1" si="4">RANDBETWEEN(0,10)</f>
+        <v>6</v>
       </c>
       <c r="Y69">
-        <f t="shared" ref="Y69:Y98" ca="1" si="4">MAX(0, MIN(10, ROUND(NORMINV(RAND(), X69, 1.2), 0)))</f>
-        <v>3</v>
+        <f t="shared" ref="Y69:Y98" ca="1" si="5">MAX(0, MIN(10, ROUND(NORMINV(RAND(), X69, 1.2), 0)))</f>
+        <v>5</v>
       </c>
       <c r="Z69">
-        <f t="shared" ref="Z69:Z98" ca="1" si="5">MAX(0, MIN(10, ROUND(NORMINV(RAND(), X69, 1.2), 0)))</f>
+        <f t="shared" ref="Z69:Z98" ca="1" si="6">MAX(0, MIN(10, ROUND(NORMINV(RAND(), X69, 1.2), 0)))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA69" t="str">
+        <f t="shared" ref="AA69:AA98" ca="1" si="7">CHOOSE(RANDBETWEEN(1,4), "Investor", "Customer", "Employee", "Regulator")</f>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>107</v>
       </c>
@@ -4201,19 +4472,23 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
       <c r="X70">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="Y70">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="Z70">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AA70" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>107</v>
       </c>
@@ -4248,19 +4523,23 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="Y71">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="Z71">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
@@ -4295,19 +4574,23 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="Y72">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="Z72">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AA72" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
@@ -4342,19 +4625,23 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y73">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="Z73">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA73" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>107</v>
       </c>
@@ -4389,19 +4676,23 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
@@ -4436,19 +4727,23 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
       </c>
-      <c r="Y75">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="Z75">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA75" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>107</v>
       </c>
@@ -4483,19 +4778,23 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="Y76">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z76">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AA76" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>107</v>
       </c>
@@ -4530,19 +4829,23 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="Y77">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="Z77">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AA77" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
@@ -4577,19 +4880,23 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="Y78">
         <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
+      <c r="Y78">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
       <c r="Z78">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AA78" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>121</v>
       </c>
@@ -4624,19 +4931,23 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
       <c r="X79">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
       <c r="Y79">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="Z79">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AA79" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>121</v>
       </c>
@@ -4671,19 +4982,23 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
       <c r="X80">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z80">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA80" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>121</v>
       </c>
@@ -4718,19 +5033,23 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
       <c r="X81">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="Y81">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="Z81">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AA81" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>121</v>
       </c>
@@ -4765,19 +5084,23 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
       <c r="X82">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="Y82">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="Z82">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>121</v>
       </c>
@@ -4812,19 +5135,23 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="Y83">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="Z83">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>121</v>
       </c>
@@ -4859,19 +5186,23 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="Y84">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="Z84">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
@@ -4906,19 +5237,23 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="Y85">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
       <c r="Z85">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>121</v>
       </c>
@@ -4953,19 +5288,23 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
       <c r="X86">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y86">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z86">
+      <c r="Y86">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z86">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>132</v>
       </c>
@@ -4996,19 +5335,23 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
       <c r="X87">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="Y87">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="Z87">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>133</v>
       </c>
@@ -5041,19 +5384,23 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
       <c r="X88">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="Y88">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="Z88">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>133</v>
       </c>
@@ -5086,19 +5433,23 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="Y89">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="Z89">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>133</v>
       </c>
@@ -5131,19 +5482,23 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
       <c r="X90">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="Y90">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z90">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
@@ -5176,19 +5531,23 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
       <c r="X91">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="Y91">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="Z91">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
@@ -5223,19 +5582,23 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="Y92">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="Z92">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Investor</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
@@ -5270,19 +5633,23 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
       <c r="X93">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="Y93">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z93">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>133</v>
       </c>
@@ -5317,19 +5684,23 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="Y94">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z94">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>144</v>
       </c>
@@ -5358,19 +5729,23 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
       <c r="X95">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="Y95">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="Z95">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>145</v>
       </c>
@@ -5401,19 +5776,23 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
       <c r="X96">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="Y96">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z96">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA96" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Regulator</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5438,19 +5817,23 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
       <c r="X97">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="Y97">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="Z97">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Customer</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5475,19 +5858,23 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
       <c r="X98">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="Y98">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="Z98">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Employee</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5515,7 +5902,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5543,7 +5930,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5571,7 +5958,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5599,7 +5986,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5627,7 +6014,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5655,7 +6042,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5683,7 +6070,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5711,7 +6098,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5739,7 +6126,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5767,7 +6154,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5795,7 +6182,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5823,7 +6210,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5851,7 +6238,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
